--- a/target/test-classes/E-commerce data.xlsx
+++ b/target/test-classes/E-commerce data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jenner\eclipse-workspace\E-Commerce_Bestbuy\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B18B411-7824-4E01-8ABC-84DEDD429F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FD7C29-D999-4391-A5D6-19C1859F71CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{BD4D9412-A425-4B23-AA0C-1728AA25200E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{BD4D9412-A425-4B23-AA0C-1728AA25200E}"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="24">
   <si>
     <t>Password</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>testuser@gmail.com</t>
+  </si>
+  <si>
+    <t>usertest92@gmail.com</t>
+  </si>
+  <si>
+    <t>amdftry</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Account not verified</t>
   </si>
 </sst>
 </file>
@@ -139,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,6 +160,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -465,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECD1FC8-05B6-4F9D-9EA2-CF1EEC925A77}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,10 +556,630 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{BE516775-7D65-45DA-8CD8-C1C187AE191D}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{06934D75-F5E9-43D5-A052-EB104CFA2A75}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{17DF8776-C403-4BC7-BB24-BEF0F826D733}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{C8FEE765-D9F2-49DD-8462-1EAA8E2D1681}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{BC28F8D3-AB14-4C2A-AAE8-428C374EFB56}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{8653C6CE-51C0-47FA-AC08-884D75632A4A}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{6F4BCBFF-816D-4337-A18C-480730A1653F}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{65BBA55B-BE74-4FA3-B45F-5364EC5A5712}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{DACC825C-4D0B-4C2F-AED7-606FEE174FDA}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{E76FAA1C-4CDA-44DE-B59F-B8D2D5918348}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{BD1DE1A6-CE01-4FEE-81F3-1247114D1236}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{346BA91A-118E-4EBD-87CB-F2D083EB1158}"/>
+    <hyperlink ref="C8" r:id="rId13" xr:uid="{A2FD12C5-794A-4132-9D91-BBE0A4A77A54}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{86C6AA38-D7B1-45AA-9360-94B58B18132A}"/>
+    <hyperlink ref="C9" r:id="rId15" xr:uid="{887262DC-70E8-464D-BE01-A79241706BA6}"/>
+    <hyperlink ref="D9" r:id="rId16" xr:uid="{2F550ED4-4720-489D-BC2A-8FF6B566E26F}"/>
+    <hyperlink ref="C10" r:id="rId17" xr:uid="{D6A9BE04-BDE4-45DC-AE3E-8DA36C02C88C}"/>
+    <hyperlink ref="D10" r:id="rId18" xr:uid="{9A90F7A7-7954-4620-8103-5093F36F0D2D}"/>
+    <hyperlink ref="C11" r:id="rId19" xr:uid="{2CB2EF56-B199-4BE8-B2C7-9154872AA4D0}"/>
+    <hyperlink ref="D11" r:id="rId20" xr:uid="{47A0A15D-1D5A-453A-B08F-604F4C7FCBAB}"/>
+    <hyperlink ref="C12" r:id="rId21" xr:uid="{8E74D332-1E29-43CE-8BD7-0DABADF4A8B4}"/>
+    <hyperlink ref="D12" r:id="rId22" xr:uid="{77C826C1-714C-409F-8CF3-20BA269AE795}"/>
+    <hyperlink ref="C13" r:id="rId23" xr:uid="{66A37919-C5C2-4F4F-A152-2D2D9B1CABEA}"/>
+    <hyperlink ref="D13" r:id="rId24" xr:uid="{D8042024-18EF-4F23-8011-84A84F41F01C}"/>
+    <hyperlink ref="C14" r:id="rId25" xr:uid="{0EA3E885-8BDF-40C9-A880-1702DAA3E29B}"/>
+    <hyperlink ref="D14" r:id="rId26" xr:uid="{AE0B72F8-839D-4009-8E63-7F8D2EC99557}"/>
+    <hyperlink ref="C15" r:id="rId27" xr:uid="{22671426-4BE2-45E7-A5BB-AFB5A4602CD3}"/>
+    <hyperlink ref="D15" r:id="rId28" xr:uid="{7A7A2944-1CE7-4762-8A92-D2DA57FEDE06}"/>
+    <hyperlink ref="C16" r:id="rId29" xr:uid="{7C81BAC6-E00C-4903-BAB9-97F46C9303AF}"/>
+    <hyperlink ref="D16" r:id="rId30" xr:uid="{8C73F8DD-7BFF-47BD-937A-AC40285316C8}"/>
+    <hyperlink ref="C17" r:id="rId31" xr:uid="{BD9CC2F6-0138-4126-B410-66458EB9D077}"/>
+    <hyperlink ref="D17" r:id="rId32" xr:uid="{19085210-7489-43E7-9774-54DBC5166258}"/>
+    <hyperlink ref="C18" r:id="rId33" xr:uid="{E6EE7E40-B395-4CCE-AC0B-687C03A838EE}"/>
+    <hyperlink ref="D18" r:id="rId34" xr:uid="{DD7F9DC2-4867-4351-83BB-0A203742C974}"/>
+    <hyperlink ref="C19" r:id="rId35" xr:uid="{46290DBD-516F-4E23-9A89-CF5DE6BF605A}"/>
+    <hyperlink ref="D19" r:id="rId36" xr:uid="{C7B15ACD-E73F-40F9-877E-E1337ABE9C0E}"/>
+    <hyperlink ref="C20" r:id="rId37" xr:uid="{720943B6-9B83-4A38-A740-2E9B50DFDEAA}"/>
+    <hyperlink ref="D20" r:id="rId38" xr:uid="{AEF1EC7F-EDF7-4BA6-895E-C84A34ABA367}"/>
+    <hyperlink ref="C21" r:id="rId39" xr:uid="{303BBC97-E52D-4606-AAE1-E84505912D7E}"/>
+    <hyperlink ref="D21" r:id="rId40" xr:uid="{8F4E96C9-3FB7-4149-8C9F-FC491DC7D86C}"/>
+    <hyperlink ref="C22" r:id="rId41" xr:uid="{F1080A91-BA51-4CC8-9154-F1731BA075D7}"/>
+    <hyperlink ref="D22" r:id="rId42" xr:uid="{4DFCED2F-CC01-46D8-8FE7-E369587461A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -552,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF029782-8FC3-4295-ABBC-094301B4C8D8}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,10 +1228,25 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{067C5355-3C7A-4765-B826-9236D089D5D1}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{03ECAAEE-0123-49A8-AEA7-DD0E89B9F7A3}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{8C2C6679-C788-42FB-8521-A13DE82BFED2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/E-commerce data.xlsx
+++ b/target/test-classes/E-commerce data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jenner\eclipse-workspace\E-Commerce_Bestbuy\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FD7C29-D999-4391-A5D6-19C1859F71CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8409C8CF-706D-480D-853D-9DCCD600563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{BD4D9412-A425-4B23-AA0C-1728AA25200E}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Signup" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Login!$B$1:$B$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="30">
   <si>
     <t>Password</t>
   </si>
@@ -100,13 +103,31 @@
     <t>usertest92@gmail.com</t>
   </si>
   <si>
-    <t>amdftry</t>
-  </si>
-  <si>
     <t>Invalid</t>
   </si>
   <si>
     <t>Account not verified</t>
+  </si>
+  <si>
+    <t>in Valid</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>ghty23457</t>
+  </si>
+  <si>
+    <t>1245678</t>
+  </si>
+  <si>
+    <t>7890&amp;*%^&amp;*</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -151,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -162,7 +183,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -480,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECD1FC8-05B6-4F9D-9EA2-CF1EEC925A77}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,17 +600,15 @@
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -599,7 +625,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
@@ -608,10 +634,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -628,19 +654,17 @@
         <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -654,7 +678,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
@@ -666,10 +690,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -683,22 +707,20 @@
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -712,10 +734,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -724,10 +746,10 @@
         <v>9</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -741,22 +763,20 @@
         <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -767,10 +787,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
@@ -782,10 +802,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -796,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>16</v>
@@ -804,17 +824,15 @@
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -825,13 +843,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>18</v>
@@ -840,10 +858,10 @@
         <v>9</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -854,25 +872,23 @@
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -883,7 +899,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
@@ -898,10 +914,10 @@
         <v>9</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -912,7 +928,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>16</v>
@@ -920,17 +936,15 @@
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -941,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -956,10 +970,10 @@
         <v>9</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -970,39 +984,37 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
@@ -1014,56 +1026,54 @@
         <v>9</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>18</v>
@@ -1072,18 +1082,18 @@
         <v>9</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>19</v>
@@ -1092,27 +1102,25 @@
         <v>16</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>19</v>
@@ -1130,11 +1138,1198 @@
         <v>9</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1147,39 +2342,18 @@
     <hyperlink ref="C5" r:id="rId7" xr:uid="{6F4BCBFF-816D-4337-A18C-480730A1653F}"/>
     <hyperlink ref="D5" r:id="rId8" xr:uid="{65BBA55B-BE74-4FA3-B45F-5364EC5A5712}"/>
     <hyperlink ref="C6" r:id="rId9" xr:uid="{DACC825C-4D0B-4C2F-AED7-606FEE174FDA}"/>
-    <hyperlink ref="D6" r:id="rId10" xr:uid="{E76FAA1C-4CDA-44DE-B59F-B8D2D5918348}"/>
-    <hyperlink ref="C7" r:id="rId11" xr:uid="{BD1DE1A6-CE01-4FEE-81F3-1247114D1236}"/>
-    <hyperlink ref="D7" r:id="rId12" xr:uid="{346BA91A-118E-4EBD-87CB-F2D083EB1158}"/>
-    <hyperlink ref="C8" r:id="rId13" xr:uid="{A2FD12C5-794A-4132-9D91-BBE0A4A77A54}"/>
-    <hyperlink ref="D8" r:id="rId14" xr:uid="{86C6AA38-D7B1-45AA-9360-94B58B18132A}"/>
-    <hyperlink ref="C9" r:id="rId15" xr:uid="{887262DC-70E8-464D-BE01-A79241706BA6}"/>
-    <hyperlink ref="D9" r:id="rId16" xr:uid="{2F550ED4-4720-489D-BC2A-8FF6B566E26F}"/>
-    <hyperlink ref="C10" r:id="rId17" xr:uid="{D6A9BE04-BDE4-45DC-AE3E-8DA36C02C88C}"/>
-    <hyperlink ref="D10" r:id="rId18" xr:uid="{9A90F7A7-7954-4620-8103-5093F36F0D2D}"/>
-    <hyperlink ref="C11" r:id="rId19" xr:uid="{2CB2EF56-B199-4BE8-B2C7-9154872AA4D0}"/>
-    <hyperlink ref="D11" r:id="rId20" xr:uid="{47A0A15D-1D5A-453A-B08F-604F4C7FCBAB}"/>
-    <hyperlink ref="C12" r:id="rId21" xr:uid="{8E74D332-1E29-43CE-8BD7-0DABADF4A8B4}"/>
-    <hyperlink ref="D12" r:id="rId22" xr:uid="{77C826C1-714C-409F-8CF3-20BA269AE795}"/>
-    <hyperlink ref="C13" r:id="rId23" xr:uid="{66A37919-C5C2-4F4F-A152-2D2D9B1CABEA}"/>
-    <hyperlink ref="D13" r:id="rId24" xr:uid="{D8042024-18EF-4F23-8011-84A84F41F01C}"/>
-    <hyperlink ref="C14" r:id="rId25" xr:uid="{0EA3E885-8BDF-40C9-A880-1702DAA3E29B}"/>
-    <hyperlink ref="D14" r:id="rId26" xr:uid="{AE0B72F8-839D-4009-8E63-7F8D2EC99557}"/>
-    <hyperlink ref="C15" r:id="rId27" xr:uid="{22671426-4BE2-45E7-A5BB-AFB5A4602CD3}"/>
-    <hyperlink ref="D15" r:id="rId28" xr:uid="{7A7A2944-1CE7-4762-8A92-D2DA57FEDE06}"/>
-    <hyperlink ref="C16" r:id="rId29" xr:uid="{7C81BAC6-E00C-4903-BAB9-97F46C9303AF}"/>
-    <hyperlink ref="D16" r:id="rId30" xr:uid="{8C73F8DD-7BFF-47BD-937A-AC40285316C8}"/>
-    <hyperlink ref="C17" r:id="rId31" xr:uid="{BD9CC2F6-0138-4126-B410-66458EB9D077}"/>
-    <hyperlink ref="D17" r:id="rId32" xr:uid="{19085210-7489-43E7-9774-54DBC5166258}"/>
-    <hyperlink ref="C18" r:id="rId33" xr:uid="{E6EE7E40-B395-4CCE-AC0B-687C03A838EE}"/>
-    <hyperlink ref="D18" r:id="rId34" xr:uid="{DD7F9DC2-4867-4351-83BB-0A203742C974}"/>
-    <hyperlink ref="C19" r:id="rId35" xr:uid="{46290DBD-516F-4E23-9A89-CF5DE6BF605A}"/>
-    <hyperlink ref="D19" r:id="rId36" xr:uid="{C7B15ACD-E73F-40F9-877E-E1337ABE9C0E}"/>
-    <hyperlink ref="C20" r:id="rId37" xr:uid="{720943B6-9B83-4A38-A740-2E9B50DFDEAA}"/>
-    <hyperlink ref="D20" r:id="rId38" xr:uid="{AEF1EC7F-EDF7-4BA6-895E-C84A34ABA367}"/>
-    <hyperlink ref="C21" r:id="rId39" xr:uid="{303BBC97-E52D-4606-AAE1-E84505912D7E}"/>
-    <hyperlink ref="D21" r:id="rId40" xr:uid="{8F4E96C9-3FB7-4149-8C9F-FC491DC7D86C}"/>
-    <hyperlink ref="C22" r:id="rId41" xr:uid="{F1080A91-BA51-4CC8-9154-F1731BA075D7}"/>
-    <hyperlink ref="D22" r:id="rId42" xr:uid="{4DFCED2F-CC01-46D8-8FE7-E369587461A7}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{BD1DE1A6-CE01-4FEE-81F3-1247114D1236}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{A2FD12C5-794A-4132-9D91-BBE0A4A77A54}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{887262DC-70E8-464D-BE01-A79241706BA6}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{47A0A15D-1D5A-453A-B08F-604F4C7FCBAB}"/>
+    <hyperlink ref="D12" r:id="rId14" xr:uid="{77C826C1-714C-409F-8CF3-20BA269AE795}"/>
+    <hyperlink ref="D13" r:id="rId15" xr:uid="{D8042024-18EF-4F23-8011-84A84F41F01C}"/>
+    <hyperlink ref="D14" r:id="rId16" xr:uid="{AE0B72F8-839D-4009-8E63-7F8D2EC99557}"/>
+    <hyperlink ref="D15" r:id="rId17" xr:uid="{7A7A2944-1CE7-4762-8A92-D2DA57FEDE06}"/>
+    <hyperlink ref="C21" r:id="rId18" xr:uid="{303BBC97-E52D-4606-AAE1-E84505912D7E}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{8F4E96C9-3FB7-4149-8C9F-FC491DC7D86C}"/>
+    <hyperlink ref="C22" r:id="rId20" xr:uid="{F1080A91-BA51-4CC8-9154-F1731BA075D7}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{4DFCED2F-CC01-46D8-8FE7-E369587461A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1187,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF029782-8FC3-4295-ABBC-094301B4C8D8}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,18 +2403,82 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
